--- a/Product-backlog-23706019.xlsx
+++ b/Product-backlog-23706019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SCU-pendrive data\semester-2\JAVAFOCP\ASSIGNMENT-2\Task-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sony\Documents\GitHub\PROG5001A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9656128B-DEF3-460E-96FE-909D8EBF4489}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF3AD42-6F3B-4B37-8AF6-6062E7446DF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>Week 9</t>
   </si>
@@ -133,12 +133,6 @@
     <t>Yamini Bakshi-23706019</t>
   </si>
   <si>
-    <t>Grow</t>
-  </si>
-  <si>
-    <t>Move</t>
-  </si>
-  <si>
     <t xml:space="preserve">The snake to Eat prey </t>
   </si>
   <si>
@@ -181,9 +175,6 @@
     <t>Yamini(23706019)</t>
   </si>
   <si>
-    <t>Eating prey</t>
-  </si>
-  <si>
     <t>3.2.1.1</t>
   </si>
   <si>
@@ -196,9 +187,6 @@
     <t>Prey Logic</t>
   </si>
   <si>
-    <t>Change position</t>
-  </si>
-  <si>
     <t>3.2.2</t>
   </si>
   <si>
@@ -211,12 +199,6 @@
     <t>GameBoard Logic</t>
   </si>
   <si>
-    <t>Exit the window</t>
-  </si>
-  <si>
-    <t>Resize the window</t>
-  </si>
-  <si>
     <t>3.2.3.1</t>
   </si>
   <si>
@@ -229,10 +211,16 @@
     <t>Logic Form</t>
   </si>
   <si>
-    <t>Displayboard</t>
-  </si>
-  <si>
     <t>The user will have an access to view the board</t>
+  </si>
+  <si>
+    <t>GUI for player score</t>
+  </si>
+  <si>
+    <t>GUI for Panels</t>
+  </si>
+  <si>
+    <t>QUIT button</t>
   </si>
 </sst>
 </file>
@@ -437,12 +425,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,6 +448,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -802,40 +790,40 @@
       <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="45"/>
       <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -870,108 +858,108 @@
     </row>
     <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="C9" s="8"/>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="39">
+        <v>2</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="39">
+        <v>3</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="39">
+        <v>4</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="39">
+        <v>5</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C14" s="39"/>
+      <c r="D14" s="41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="39">
+        <v>6</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="39">
+        <v>7</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="39">
+        <v>8</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="C18" s="39"/>
+      <c r="D18" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="41">
-        <v>2</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="41">
-        <v>3</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="41">
-        <v>4</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="41">
-        <v>5</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C14" s="41"/>
-      <c r="D14" s="43" t="s">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="39">
+        <v>9</v>
+      </c>
+      <c r="D19" s="43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="41">
-        <v>6</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="41">
-        <v>7</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="41">
-        <v>8</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="C18" s="41"/>
-      <c r="D18" s="43" t="s">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="44">
+        <v>10</v>
+      </c>
+      <c r="D20" s="43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="41">
-        <v>9</v>
-      </c>
-      <c r="D19" s="45" t="s">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="44">
+        <v>11</v>
+      </c>
+      <c r="D21" s="43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="46">
-        <v>10</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="46">
-        <v>11</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="46">
+      <c r="C22" s="44">
         <v>12</v>
       </c>
-      <c r="D22" s="45" t="s">
-        <v>68</v>
+      <c r="D22" s="43" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -990,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDA2708-75B5-4180-9C4B-08F40A18D95A}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1027,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -1183,7 +1171,7 @@
       <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="36">
         <v>1</v>
       </c>
       <c r="G12" s="6"/>
@@ -1200,7 +1188,7 @@
       <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="36">
         <v>1</v>
       </c>
       <c r="G13" s="6"/>
@@ -1211,7 +1199,12 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="36">
+        <v>1</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1221,7 +1214,12 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="6"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="36">
+        <v>1</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1231,7 +1229,12 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="6"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="36">
+        <v>1</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1267,7 +1270,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G19" s="6"/>
@@ -1278,13 +1281,11 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="D20" s="5"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1293,19 +1294,15 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>35</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
@@ -1313,55 +1310,47 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="39"/>
+        <v>54</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>62</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D30" s="5"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
@@ -1382,9 +1371,9 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="38">
+        <v>60</v>
+      </c>
+      <c r="F40" s="36">
         <v>1</v>
       </c>
     </row>

--- a/Product-backlog-23706019.xlsx
+++ b/Product-backlog-23706019.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sony\Documents\GitHub\PROG5001A2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF3AD42-6F3B-4B37-8AF6-6062E7446DF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="2" r:id="rId1"/>
     <sheet name="Snake-game" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>Week 9</t>
   </si>
@@ -181,9 +175,6 @@
     <t>3.2.1.2</t>
   </si>
   <si>
-    <t>3.2.1.3</t>
-  </si>
-  <si>
     <t>Prey Logic</t>
   </si>
   <si>
@@ -221,13 +212,37 @@
   </si>
   <si>
     <t>QUIT button</t>
+  </si>
+  <si>
+    <t>Making the snake  grow</t>
+  </si>
+  <si>
+    <t>Random position</t>
+  </si>
+  <si>
+    <t>Set the dimensions</t>
+  </si>
+  <si>
+    <t>point array class</t>
+  </si>
+  <si>
+    <t>Moving the snake</t>
+  </si>
+  <si>
+    <t>Timer(Play/pause by space button )</t>
+  </si>
+  <si>
+    <t>Making snake eat prey</t>
+  </si>
+  <si>
+    <t>Did initially but with errors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -456,6 +471,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +532,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -568,7 +584,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -762,21 +778,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F2A6E6-5A3B-4CAD-BC9F-023E52339F74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
@@ -786,7 +802,7 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
@@ -796,7 +812,7 @@
       <c r="C1" s="45"/>
       <c r="D1" s="29"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="21" t="s">
         <v>9</v>
       </c>
@@ -806,7 +822,7 @@
       <c r="C2" s="45"/>
       <c r="D2" s="29"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
@@ -816,7 +832,7 @@
       <c r="C3" s="45"/>
       <c r="D3" s="29"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>32</v>
       </c>
@@ -826,19 +842,19 @@
       <c r="C4" s="46"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="27"/>
       <c r="B6" s="28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="25" t="s">
@@ -848,7 +864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="C8" s="8">
         <v>1</v>
       </c>
@@ -856,13 +872,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="21">
       <c r="C9" s="8"/>
       <c r="D9" s="35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="C10" s="39">
         <v>2</v>
       </c>
@@ -870,7 +886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="C11" s="39">
         <v>3</v>
       </c>
@@ -878,7 +894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="C12" s="39">
         <v>4</v>
       </c>
@@ -886,7 +902,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="C13" s="39">
         <v>5</v>
       </c>
@@ -894,13 +910,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="21">
       <c r="C14" s="39"/>
       <c r="D14" s="41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="C15" s="39">
         <v>6</v>
       </c>
@@ -908,7 +924,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1">
       <c r="C16" s="39">
         <v>7</v>
       </c>
@@ -916,7 +932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4">
       <c r="C17" s="39">
         <v>8</v>
       </c>
@@ -924,13 +940,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:4" ht="21">
       <c r="C18" s="39"/>
       <c r="D18" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4">
       <c r="C19" s="39">
         <v>9</v>
       </c>
@@ -938,7 +954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4">
       <c r="C20" s="44">
         <v>10</v>
       </c>
@@ -946,7 +962,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4">
       <c r="C21" s="44">
         <v>11</v>
       </c>
@@ -954,12 +970,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4">
       <c r="C22" s="44">
         <v>12</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -975,30 +991,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDA2708-75B5-4180-9C4B-08F40A18D95A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" style="11" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="6" width="8" style="8" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="31.140625" customWidth="1"/>
     <col min="13" max="13" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
@@ -1006,7 +1022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
@@ -1014,15 +1030,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="23" t="s">
         <v>33</v>
       </c>
@@ -1032,13 +1048,13 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="31" t="s">
         <v>21</v>
       </c>
@@ -1076,7 +1092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -1098,7 +1114,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -1120,7 +1136,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="8"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1131,7 +1147,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="9">
         <v>3</v>
       </c>
@@ -1150,7 +1166,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="13">
         <v>3.1</v>
       </c>
@@ -1164,23 +1180,22 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="36">
-        <v>1</v>
-      </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="36">
+        <v>1</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="12" t="s">
         <v>30</v>
       </c>
@@ -1188,60 +1203,56 @@
       <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="36">
-        <v>1</v>
-      </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="36">
+        <v>1</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="12"/>
       <c r="D14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="36">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="36">
+        <v>1</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="12"/>
       <c r="B15" s="6"/>
       <c r="D15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="36">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="36">
+        <v>1</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="12"/>
       <c r="B16" s="6"/>
       <c r="D16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="36">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="36">
+        <v>1</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="12"/>
       <c r="B17" s="6"/>
       <c r="D17" s="2"/>
@@ -1251,7 +1262,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="11">
         <v>3.2</v>
       </c>
@@ -1265,7 +1276,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
@@ -1279,80 +1290,129 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="G20" s="6"/>
+      <c r="D20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="6">
+        <v>50</v>
+      </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="I20" s="47">
+        <v>1</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="I21" s="37">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="12"/>
+      <c r="D22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="I22" s="37">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="12"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="D25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="I25" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="D26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="D27" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="J27" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="D28" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="D29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="9">
         <v>4</v>
       </c>
@@ -1366,18 +1426,18 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="11">
         <v>4.0999999999999996</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F40" s="36">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="9">
         <v>5</v>
       </c>
